--- a/Hardware/RFCU_V2.0/Current.xlsx
+++ b/Hardware/RFCU_V2.0/Current.xlsx
@@ -68,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0&quot; mA&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00\ &quot; mA&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\ &quot;mA&quot;"/>
+    <numFmt numFmtId="164" formatCode="0&quot; mA&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.00\ &quot; mA&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00\ &quot;mA&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,24 +123,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,170 +425,170 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H13:H14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>D2+G2</f>
         <v>1105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>150</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>SUM(C:C)</f>
         <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>SUM(F:F)</f>
         <v>955</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>1.4</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>SUM(I:I)</f>
         <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>25</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>25</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>25</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>25</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>750</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>100</v>
       </c>
     </row>

--- a/Hardware/RFCU_V2.0/Current.xlsx
+++ b/Hardware/RFCU_V2.0/Current.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
